--- a/src/main/resources/static/excel/membersTemplate.xlsx
+++ b/src/main/resources/static/excel/membersTemplate.xlsx
@@ -11,6 +11,28 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>huawei</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:if(condition="item.qq != ‘’",item.qq,’--’)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -189,7 +211,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -372,6 +394,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1229,7 +1256,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1238,7 +1265,7 @@
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.4444444444444" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.6666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.3333333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.1111111111111" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.7777777777778" style="3" customWidth="1"/>
     <col min="8" max="8" width="18.2222222222222" style="3" customWidth="1"/>
@@ -18129,7 +18156,7 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" ht="14.4" spans="1:18">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -18149,7 +18176,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" ht="14.4" spans="1:18">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -18169,7 +18196,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" ht="14.4" spans="1:18">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -18189,7 +18216,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" ht="14.4" spans="1:18">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -18209,7 +18236,7 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" ht="14.4" spans="1:18">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
@@ -18229,7 +18256,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" ht="14.4" spans="1:18">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -18249,7 +18276,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" ht="14.4" spans="1:18">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
@@ -18269,7 +18296,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" ht="14.4" spans="1:18">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
@@ -18289,7 +18316,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" ht="14.4" spans="1:18">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
@@ -18309,7 +18336,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" ht="14.4" spans="1:18">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
@@ -18329,7 +18356,7 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" ht="14.4" spans="1:18">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
@@ -18349,7 +18376,7 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" ht="14.4" spans="1:18">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
@@ -18369,7 +18396,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" ht="14.4" spans="1:18">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -18389,7 +18416,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" ht="14.4" spans="1:18">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
@@ -18409,7 +18436,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" ht="14.4" spans="1:18">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
@@ -18429,7 +18456,7 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" ht="14.4" spans="1:18">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
@@ -18449,7 +18476,7 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" ht="14.4" spans="1:18">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
@@ -18469,7 +18496,7 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" ht="14.4" spans="1:18">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
@@ -18493,5 +18520,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>